--- a/scyros/s1-scyros-measures.xlsx
+++ b/scyros/s1-scyros-measures.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\HIV\r\scyros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lhcdevfiler\CSB-UMLS-Project\HIV\r\scyros\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13290"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="28800" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Scyros_description" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>Metric</t>
   </si>
@@ -214,10 +213,13 @@
     <t>patient_computation_then_aggregation</t>
   </si>
   <si>
-    <t>age_l</t>
-  </si>
-  <si>
     <t>simple</t>
+  </si>
+  <si>
+    <t>age_last_obs</t>
+  </si>
+  <si>
+    <t>visit_count</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1031,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,6 +1067,12 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -1072,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1082,27 +1090,66 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,6 +1165,15 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>103</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1132,58 +1188,151 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>103</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>103</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>103</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>103</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -1194,13 +1343,28 @@
       <c r="E14" t="s">
         <v>63</v>
       </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1236,6 +1400,12 @@
       <c r="D17" t="s">
         <v>33</v>
       </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1250,8 +1420,17 @@
       <c r="D18" t="s">
         <v>35</v>
       </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -1261,8 +1440,17 @@
       <c r="D19" t="s">
         <v>37</v>
       </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
       <c r="B20" t="s">
         <v>55</v>
       </c>
@@ -1272,48 +1460,111 @@
       <c r="D20" t="s">
         <v>39</v>
       </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
       <c r="G20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
       <c r="C21" t="s">
         <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
       </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
       <c r="C22" t="s">
         <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>43</v>
       </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
       <c r="C23" t="s">
         <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
       </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
       <c r="C24" t="s">
         <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>47</v>
       </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
       <c r="C25" t="s">
         <v>48</v>
       </c>
       <c r="D25" t="s">
         <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
